--- a/Lewis_factor_table.xlsx
+++ b/Lewis_factor_table.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Matlab R202a\bin\Matlab Projects\Gear Designer\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Matlab R202a\bin\Matlab Projects\Gear Designer\GD\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,12 +24,18 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>Numofteeth</t>
   </si>
   <si>
-    <t>Lewis_Factor</t>
+    <t>Full_depth_20</t>
+  </si>
+  <si>
+    <t>Full_Depth_14.5</t>
+  </si>
+  <si>
+    <t>Stub_20</t>
   </si>
 </sst>
 </file>
@@ -371,178 +377,298 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B24"/>
+  <dimension ref="A1:D24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:2" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>12</v>
       </c>
       <c r="B2" s="1">
+        <v>6.7000000000000004E-2</v>
+      </c>
+      <c r="C2" s="1">
         <v>7.8E-2</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D2" s="1">
+        <v>9.9000000000000005E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>14</v>
       </c>
       <c r="B3" s="1">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="C3" s="1">
         <v>8.7999999999999995E-2</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D3" s="1">
+        <v>0.108</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>16</v>
       </c>
       <c r="B4" s="1">
+        <v>8.1000000000000003E-2</v>
+      </c>
+      <c r="C4" s="1">
         <v>9.4E-2</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D4" s="1">
+        <v>0.115</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>18</v>
       </c>
       <c r="B5" s="1">
+        <v>8.5999999999999993E-2</v>
+      </c>
+      <c r="C5" s="1">
         <v>9.8000000000000004E-2</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D5" s="1">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>20</v>
       </c>
       <c r="B6" s="1">
+        <v>0.09</v>
+      </c>
+      <c r="C6" s="1">
         <v>0.10199999999999999</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D6" s="1">
+        <v>0.125</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>22</v>
       </c>
       <c r="B7" s="1">
+        <v>9.2999999999999999E-2</v>
+      </c>
+      <c r="C7" s="1">
         <v>0.105</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D7" s="1">
+        <v>0.1285</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>24</v>
       </c>
       <c r="B8" s="1">
+        <v>9.5500000000000002E-2</v>
+      </c>
+      <c r="C8" s="1">
         <v>0.106</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D8" s="1">
+        <v>0.13150000000000001</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>26</v>
       </c>
       <c r="B9" s="1">
+        <v>9.8000000000000004E-2</v>
+      </c>
+      <c r="C9" s="1">
         <v>0.1095</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D9" s="1">
+        <v>0.13450000000000001</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>28</v>
       </c>
       <c r="B10" s="1">
+        <v>9.9659999999999999E-2</v>
+      </c>
+      <c r="C10" s="1">
         <v>0.112</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D10" s="1">
+        <v>0.13700000000000001</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>30</v>
       </c>
       <c r="B11" s="1">
+        <v>0.10100000000000001</v>
+      </c>
+      <c r="C11" s="1">
         <v>0.114</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D11" s="1">
+        <v>0.13900000000000001</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>34</v>
       </c>
       <c r="B12" s="1">
+        <v>0.104</v>
+      </c>
+      <c r="C12" s="1">
         <v>0.11799999999999999</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D12" s="1">
+        <v>0.14199999999999999</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>38</v>
       </c>
       <c r="B13" s="1">
+        <v>0.106</v>
+      </c>
+      <c r="C13" s="1">
         <v>0.122</v>
       </c>
-    </row>
-    <row r="14" spans="1:2" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D13" s="1">
+        <v>0.14499999999999999</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>40</v>
       </c>
       <c r="B14" s="1">
+        <v>0.10639999999999999</v>
+      </c>
+      <c r="C14" s="1">
         <v>0.1236</v>
       </c>
-    </row>
-    <row r="15" spans="1:2" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D14" s="1">
+        <v>0.14580000000000001</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>50</v>
       </c>
       <c r="B15" s="1">
+        <v>0.11</v>
+      </c>
+      <c r="C15" s="1">
         <v>0.13</v>
       </c>
-    </row>
-    <row r="16" spans="1:2" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D15" s="1">
+        <v>0.151</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>60</v>
       </c>
       <c r="B16" s="1">
+        <v>0.113</v>
+      </c>
+      <c r="C16" s="1">
         <v>0.13400000000000001</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D16" s="1">
+        <v>0.154</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>75</v>
       </c>
       <c r="B17" s="1">
+        <v>0.115</v>
+      </c>
+      <c r="C17" s="1">
         <v>0.13800000000000001</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D17" s="1">
+        <v>0.158</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>100</v>
       </c>
       <c r="B18" s="1">
+        <v>0.11700000000000001</v>
+      </c>
+      <c r="C18" s="1">
         <v>0.14199999999999999</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D18" s="1">
+        <v>0.161</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>150</v>
       </c>
       <c r="B19" s="1">
+        <v>0.11899999999999999</v>
+      </c>
+      <c r="C19" s="1">
         <v>0.14599999999999999</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D19" s="1">
+        <v>0.16500000000000001</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>300</v>
       </c>
       <c r="B20" s="1">
+        <v>0.122</v>
+      </c>
+      <c r="C20" s="1">
         <v>0.15</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" ht="25.05" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="22" spans="1:2" ht="25.05" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="23" spans="1:2" ht="25.05" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="24" spans="1:2" ht="25.05" customHeight="1" x14ac:dyDescent="0.3"/>
+      <c r="D20" s="1">
+        <v>0.17</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="25.05" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="22" spans="1:4" ht="25.05" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="23" spans="1:4" ht="25.05" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="24" spans="1:4" ht="25.05" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/Lewis_factor_table.xlsx
+++ b/Lewis_factor_table.xlsx
@@ -29,13 +29,13 @@
     <t>Numofteeth</t>
   </si>
   <si>
-    <t>Full_depth_20</t>
+    <t>Stub_20</t>
   </si>
   <si>
-    <t>Full_Depth_14.5</t>
+    <t>Full_Depth_14</t>
   </si>
   <si>
-    <t>Stub_20</t>
+    <t>Full_Depth_20</t>
   </si>
 </sst>
 </file>
@@ -380,7 +380,7 @@
   <dimension ref="A1:D24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -393,10 +393,10 @@
         <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
